--- a/biology/Médecine/Crista_galli/Crista_galli.xlsx
+++ b/biology/Médecine/Crista_galli/Crista_galli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La crista galli (« crête de coq » en latin)  ou apophyse crista galli est un processus médian supérieur de l'os ethmoïde[1]. C'est une apophyse verticale située dans le plan sagittal. Elle constitue, avec la lame perpendiculaire de l'os ethmoïde, la lame verticale de l'os ethmoïde
+La crista galli (« crête de coq » en latin)  ou apophyse crista galli est un processus médian supérieur de l'os ethmoïde. C'est une apophyse verticale située dans le plan sagittal. Elle constitue, avec la lame perpendiculaire de l'os ethmoïde, la lame verticale de l'os ethmoïde
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La crista galli est une lame osseuse qui se situe au dessus de la lame criblée. Elle est de forme triangulaire. 
 Sa base s’insère sur la lame criblée. Son sommet arrondi est un des points d'insertion de la faux du cerveau.
@@ -546,7 +560,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bulbes olfactifs se trouvent de chaque côté de la crista galli sur le dessus de la lame criblée.
 Le bord postérieur est une des zones d'insertion de la faux du cerveau.
@@ -579,10 +595,12 @@
           <t>Variations anatomiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La hauteur de la lame osseuse varie largement entre les individus. Chez la plupart des individus elle arrive juste en dessous de la lame criblée. Dans 28% des cas elle la dépasse largement, alors que chez 8 % des personnes elle ne dépasse pas la moitié de la lame criblée [2].
-La crista galli peut être le siège d'une pneumatisation, c'est-à-dire qu'une cellule peut se développer à l'intérieur. On considère que 13% de la population a ainsi une crista galli pneumatisée [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur de la lame osseuse varie largement entre les individus. Chez la plupart des individus elle arrive juste en dessous de la lame criblée. Dans 28% des cas elle la dépasse largement, alors que chez 8 % des personnes elle ne dépasse pas la moitié de la lame criblée .
+La crista galli peut être le siège d'une pneumatisation, c'est-à-dire qu'une cellule peut se développer à l'intérieur. On considère que 13% de la population a ainsi une crista galli pneumatisée .
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une crista galli pneumatisée peut très rarement être le siège d'une mucocèle [4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une crista galli pneumatisée peut très rarement être le siège d'une mucocèle .
 </t>
         </is>
       </c>
